--- a/doc/09.18.2013 Meeting/Features.xlsx
+++ b/doc/09.18.2013 Meeting/Features.xlsx
@@ -556,14 +556,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" customWidth="1"/>
   </cols>
